--- a/sbs/ru_vicuna_question/openai_davinci_003_openai_davinci_002.xlsx
+++ b/sbs/ru_vicuna_question/openai_davinci_003_openai_davinci_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexkuk/proj/rulm-sbs/sbs/ru_vicuna_question/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E104F68-B972-6140-8BE2-5C9C2DE13DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358246A8-D9BC-2E42-84DD-BE04A56651AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1779,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="335" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -1898,7 +1898,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="304" x14ac:dyDescent="0.2">
@@ -2085,7 +2085,7 @@
         <v>61</v>
       </c>
       <c r="E20" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="224" x14ac:dyDescent="0.2">
@@ -2119,7 +2119,7 @@
         <v>67</v>
       </c>
       <c r="E22" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
         <v>79</v>
       </c>
       <c r="E26" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -2204,7 +2204,7 @@
         <v>82</v>
       </c>
       <c r="E27" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="E28" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>88</v>
       </c>
       <c r="E29" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="224" x14ac:dyDescent="0.2">
@@ -2255,7 +2255,7 @@
         <v>91</v>
       </c>
       <c r="E30" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -2272,7 +2272,7 @@
         <v>94</v>
       </c>
       <c r="E31" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
         <v>109</v>
       </c>
       <c r="E36" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -2391,7 +2391,7 @@
         <v>115</v>
       </c>
       <c r="E38" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2425,7 +2425,7 @@
         <v>121</v>
       </c>
       <c r="E40" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -2544,7 +2544,7 @@
         <v>142</v>
       </c>
       <c r="E47" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>157</v>
       </c>
       <c r="E52" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2646,7 +2646,7 @@
         <v>160</v>
       </c>
       <c r="E53" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -2663,7 +2663,7 @@
         <v>163</v>
       </c>
       <c r="E54" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2731,7 +2731,7 @@
         <v>175</v>
       </c>
       <c r="E58" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2748,7 +2748,7 @@
         <v>178</v>
       </c>
       <c r="E59" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2969,7 +2969,7 @@
         <v>217</v>
       </c>
       <c r="E72" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="208" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
         <v>220</v>
       </c>
       <c r="E73" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="380" x14ac:dyDescent="0.2">
@@ -3003,7 +3003,7 @@
         <v>223</v>
       </c>
       <c r="E74" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="350" x14ac:dyDescent="0.2">
@@ -3020,7 +3020,7 @@
         <v>226</v>
       </c>
       <c r="E75" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -3037,7 +3037,7 @@
         <v>229</v>
       </c>
       <c r="E76" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="335" x14ac:dyDescent="0.2">
@@ -3054,7 +3054,7 @@
         <v>232</v>
       </c>
       <c r="E77" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="272" x14ac:dyDescent="0.2">
@@ -3071,7 +3071,7 @@
         <v>235</v>
       </c>
       <c r="E78" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="272" x14ac:dyDescent="0.2">
@@ -3105,7 +3105,7 @@
         <v>241</v>
       </c>
       <c r="E80" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="240" x14ac:dyDescent="0.2">
